--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3543.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3543.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.806404178213389</v>
+        <v>0.6460902094841003</v>
       </c>
       <c r="B1">
-        <v>1.942200966031563</v>
+        <v>0.6371238827705383</v>
       </c>
       <c r="C1">
-        <v>1.993677549447991</v>
+        <v>0.6677056550979614</v>
       </c>
       <c r="D1">
-        <v>2.433147481401477</v>
+        <v>0.8804638385772705</v>
       </c>
       <c r="E1">
-        <v>3.524704840920659</v>
+        <v>0.8508303165435791</v>
       </c>
     </row>
   </sheetData>
